--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{542FB0D4-FF93-40BC-B401-B300D1C86178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5E96AA-EDC4-4C32-9B33-F3D62606C563}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD88D3-3448-4031-BF90-369B0269A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本スケジュール" sheetId="2" r:id="rId1"/>
@@ -16,23 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -416,6 +405,20 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>チエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩﨑</t>
+    <rPh sb="0" eb="2">
+      <t>イワサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩﨑</t>
+    <rPh sb="0" eb="2">
+      <t>イワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,25 +861,25 @@
   <dimension ref="A1:DN33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="57" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="66" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="87" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="96" width="3.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="96" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="97" max="118" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="119" max="16384" width="9" style="1"/>
   </cols>
@@ -3691,7 +3694,9 @@
       <c r="C19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -3815,7 +3820,9 @@
       <c r="C20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="2"/>
+      <c r="D20" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -5600,21 +5607,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -5758,14 +5750,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -1,27 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FD88D3-3448-4031-BF90-369B0269A0C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7FD3C-E2D0-4808-8B1E-345084C6607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本スケジュール" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="68">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -143,9 +154,6 @@
       <t>サクセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>作業中(予定通り)</t>
   </si>
   <si>
     <t>全員</t>
@@ -419,6 +427,100 @@
     <t>岩﨑</t>
     <rPh sb="0" eb="2">
       <t>イワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴田</t>
+  </si>
+  <si>
+    <t>鶴田</t>
+    <rPh sb="0" eb="2">
+      <t>ツルダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>岩﨑</t>
+  </si>
+  <si>
+    <t>岩﨑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中嶋</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　パスワード変更画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　チャット画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　ホーム画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員</t>
+  </si>
+  <si>
+    <t>　パスワード変更完了画面</t>
+    <rPh sb="8" eb="10">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　新規登録画面</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　新規登録完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中嶋、岩﨑、藤元</t>
+    <rPh sb="0" eb="2">
+      <t>ナカシマ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>フジモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤元</t>
+  </si>
+  <si>
+    <t>藤元</t>
+    <rPh sb="0" eb="2">
+      <t>フジモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>藤元</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鶴田、松尾</t>
+    <rPh sb="3" eb="5">
+      <t>マツオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -858,13 +960,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711CCBEE-EF5C-425E-9E1A-BEF9ED1F8485}">
-  <dimension ref="A1:DN33"/>
+  <dimension ref="A1:DN39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="H10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -1820,11 +1922,11 @@
         <v>16</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="7"/>
@@ -1943,14 +2045,14 @@
     <row r="5" spans="1:118">
       <c r="A5" s="2"/>
       <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -2069,10 +2171,10 @@
     <row r="6" spans="1:118">
       <c r="A6" s="2"/>
       <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2193,15 +2295,17 @@
     <row r="7" spans="1:118">
       <c r="A7" s="2"/>
       <c r="B7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -2319,14 +2423,14 @@
     <row r="8" spans="1:118">
       <c r="A8" s="2"/>
       <c r="B8" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -2445,13 +2549,17 @@
     <row r="9" spans="1:118">
       <c r="A9" s="2"/>
       <c r="B9" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -2569,14 +2677,16 @@
     <row r="10" spans="1:118">
       <c r="A10" s="2"/>
       <c r="B10" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>51</v>
+      </c>
       <c r="E10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -2695,12 +2805,14 @@
     <row r="11" spans="1:118">
       <c r="A11" s="2"/>
       <c r="B11" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -2819,14 +2931,16 @@
     <row r="12" spans="1:118">
       <c r="A12" s="2"/>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -2945,12 +3059,14 @@
     <row r="13" spans="1:118">
       <c r="A13" s="2"/>
       <c r="B13" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3069,12 +3185,14 @@
     <row r="14" spans="1:118">
       <c r="A14" s="2"/>
       <c r="B14" s="12" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3115,35 +3233,35 @@
       <c r="AP14" s="2"/>
       <c r="AQ14" s="8"/>
       <c r="AR14" s="8"/>
-      <c r="AS14" s="2"/>
+      <c r="AS14" s="8"/>
       <c r="AT14" s="3"/>
       <c r="AU14" s="3"/>
-      <c r="AV14" s="2"/>
-      <c r="AW14" s="2"/>
-      <c r="AX14" s="2"/>
-      <c r="AY14" s="2"/>
-      <c r="AZ14" s="2"/>
+      <c r="AV14" s="8"/>
+      <c r="AW14" s="8"/>
+      <c r="AX14" s="8"/>
+      <c r="AY14" s="8"/>
+      <c r="AZ14" s="8"/>
       <c r="BA14" s="3"/>
       <c r="BB14" s="3"/>
-      <c r="BC14" s="2"/>
-      <c r="BD14" s="2"/>
-      <c r="BE14" s="2"/>
-      <c r="BF14" s="2"/>
-      <c r="BG14" s="2"/>
+      <c r="BC14" s="8"/>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8"/>
+      <c r="BG14" s="8"/>
       <c r="BH14" s="3"/>
       <c r="BI14" s="3"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
+      <c r="BJ14" s="8"/>
+      <c r="BK14" s="8"/>
+      <c r="BL14" s="8"/>
+      <c r="BM14" s="8"/>
+      <c r="BN14" s="8"/>
       <c r="BO14" s="3"/>
       <c r="BP14" s="3"/>
-      <c r="BQ14" s="2"/>
-      <c r="BR14" s="2"/>
-      <c r="BS14" s="2"/>
-      <c r="BT14" s="2"/>
-      <c r="BU14" s="2"/>
+      <c r="BQ14" s="8"/>
+      <c r="BR14" s="8"/>
+      <c r="BS14" s="8"/>
+      <c r="BT14" s="8"/>
+      <c r="BU14" s="8"/>
       <c r="BV14" s="3"/>
       <c r="BW14" s="3"/>
       <c r="BX14" s="2"/>
@@ -3193,12 +3311,14 @@
     <row r="15" spans="1:118">
       <c r="A15" s="2"/>
       <c r="B15" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -3237,13 +3357,13 @@
       <c r="AN15" s="3"/>
       <c r="AO15" s="2"/>
       <c r="AP15" s="2"/>
-      <c r="AQ15" s="2"/>
-      <c r="AR15" s="2"/>
+      <c r="AQ15" s="8"/>
+      <c r="AR15" s="8"/>
       <c r="AS15" s="2"/>
       <c r="AT15" s="3"/>
       <c r="AU15" s="3"/>
-      <c r="AV15" s="8"/>
-      <c r="AW15" s="8"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
       <c r="AX15" s="2"/>
       <c r="AY15" s="2"/>
       <c r="AZ15" s="2"/>
@@ -3317,12 +3437,14 @@
     <row r="16" spans="1:118">
       <c r="A16" s="2"/>
       <c r="B16" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -3366,8 +3488,8 @@
       <c r="AS16" s="2"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="2"/>
-      <c r="AW16" s="2"/>
+      <c r="AV16" s="8"/>
+      <c r="AW16" s="8"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -3441,12 +3563,14 @@
     <row r="17" spans="1:118">
       <c r="A17" s="2"/>
       <c r="B17" s="12" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D17" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -3485,23 +3609,23 @@
       <c r="AN17" s="3"/>
       <c r="AO17" s="2"/>
       <c r="AP17" s="2"/>
-      <c r="AQ17" s="9"/>
-      <c r="AR17" s="9"/>
-      <c r="AS17" s="9"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
       <c r="AT17" s="3"/>
       <c r="AU17" s="3"/>
-      <c r="AV17" s="9"/>
-      <c r="AW17" s="9"/>
-      <c r="AX17" s="9"/>
-      <c r="AY17" s="9"/>
-      <c r="AZ17" s="9"/>
+      <c r="AV17" s="8"/>
+      <c r="AW17" s="8"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
       <c r="BA17" s="3"/>
       <c r="BB17" s="3"/>
-      <c r="BC17" s="9"/>
-      <c r="BD17" s="9"/>
-      <c r="BE17" s="9"/>
-      <c r="BF17" s="9"/>
-      <c r="BG17" s="9"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
       <c r="BH17" s="3"/>
       <c r="BI17" s="3"/>
       <c r="BJ17" s="2"/>
@@ -3565,12 +3689,14 @@
     <row r="18" spans="1:118">
       <c r="A18" s="2"/>
       <c r="B18" s="12" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3614,53 +3740,53 @@
       <c r="AS18" s="2"/>
       <c r="AT18" s="3"/>
       <c r="AU18" s="3"/>
-      <c r="AV18" s="2"/>
-      <c r="AW18" s="2"/>
+      <c r="AV18" s="8"/>
+      <c r="AW18" s="8"/>
       <c r="AX18" s="2"/>
       <c r="AY18" s="2"/>
       <c r="AZ18" s="2"/>
       <c r="BA18" s="3"/>
       <c r="BB18" s="3"/>
-      <c r="BC18" s="7"/>
-      <c r="BD18" s="7"/>
-      <c r="BE18" s="7"/>
-      <c r="BF18" s="7"/>
-      <c r="BG18" s="7"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
       <c r="BH18" s="3"/>
       <c r="BI18" s="3"/>
-      <c r="BJ18" s="7"/>
-      <c r="BK18" s="7"/>
-      <c r="BL18" s="7"/>
-      <c r="BM18" s="7"/>
-      <c r="BN18" s="7"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
       <c r="BO18" s="3"/>
       <c r="BP18" s="3"/>
-      <c r="BQ18" s="7"/>
-      <c r="BR18" s="7"/>
-      <c r="BS18" s="7"/>
-      <c r="BT18" s="7"/>
-      <c r="BU18" s="7"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
       <c r="BV18" s="3"/>
       <c r="BW18" s="3"/>
-      <c r="BX18" s="7"/>
-      <c r="BY18" s="7"/>
-      <c r="BZ18" s="7"/>
-      <c r="CA18" s="7"/>
-      <c r="CB18" s="7"/>
+      <c r="BX18" s="2"/>
+      <c r="BY18" s="2"/>
+      <c r="BZ18" s="2"/>
+      <c r="CA18" s="2"/>
+      <c r="CB18" s="2"/>
       <c r="CC18" s="3"/>
       <c r="CD18" s="3"/>
-      <c r="CE18" s="7"/>
-      <c r="CF18" s="7"/>
-      <c r="CG18" s="7"/>
-      <c r="CH18" s="7"/>
-      <c r="CI18" s="7"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
       <c r="CJ18" s="3"/>
       <c r="CK18" s="3"/>
-      <c r="CL18" s="7"/>
-      <c r="CM18" s="7"/>
-      <c r="CN18" s="7"/>
-      <c r="CO18" s="7"/>
-      <c r="CP18" s="7"/>
+      <c r="CL18" s="2"/>
+      <c r="CM18" s="2"/>
+      <c r="CN18" s="2"/>
+      <c r="CO18" s="2"/>
+      <c r="CP18" s="2"/>
       <c r="CQ18" s="3"/>
       <c r="CR18" s="3"/>
       <c r="CS18" s="2"/>
@@ -3689,13 +3815,13 @@
     <row r="19" spans="1:118">
       <c r="A19" s="2"/>
       <c r="B19" s="12" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -3740,17 +3866,17 @@
       <c r="AS19" s="2"/>
       <c r="AT19" s="3"/>
       <c r="AU19" s="3"/>
-      <c r="AV19" s="2"/>
-      <c r="AW19" s="2"/>
+      <c r="AV19" s="8"/>
+      <c r="AW19" s="8"/>
       <c r="AX19" s="2"/>
       <c r="AY19" s="2"/>
       <c r="AZ19" s="2"/>
       <c r="BA19" s="3"/>
       <c r="BB19" s="3"/>
-      <c r="BC19" s="7"/>
-      <c r="BD19" s="7"/>
-      <c r="BE19" s="7"/>
-      <c r="BF19" s="7"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
       <c r="BG19" s="2"/>
       <c r="BH19" s="3"/>
       <c r="BI19" s="3"/>
@@ -3815,13 +3941,13 @@
     <row r="20" spans="1:118">
       <c r="A20" s="2"/>
       <c r="B20" s="12" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -3866,8 +3992,8 @@
       <c r="AS20" s="2"/>
       <c r="AT20" s="3"/>
       <c r="AU20" s="3"/>
-      <c r="AV20" s="2"/>
-      <c r="AW20" s="2"/>
+      <c r="AV20" s="8"/>
+      <c r="AW20" s="8"/>
       <c r="AX20" s="2"/>
       <c r="AY20" s="2"/>
       <c r="AZ20" s="2"/>
@@ -3880,8 +4006,8 @@
       <c r="BG20" s="2"/>
       <c r="BH20" s="3"/>
       <c r="BI20" s="3"/>
-      <c r="BJ20" s="7"/>
-      <c r="BK20" s="7"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
       <c r="BM20" s="2"/>
       <c r="BN20" s="2"/>
@@ -3941,12 +4067,14 @@
     <row r="21" spans="1:118">
       <c r="A21" s="2"/>
       <c r="B21" s="12" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -3990,8 +4118,8 @@
       <c r="AS21" s="2"/>
       <c r="AT21" s="3"/>
       <c r="AU21" s="3"/>
-      <c r="AV21" s="2"/>
-      <c r="AW21" s="2"/>
+      <c r="AV21" s="8"/>
+      <c r="AW21" s="8"/>
       <c r="AX21" s="2"/>
       <c r="AY21" s="2"/>
       <c r="AZ21" s="2"/>
@@ -4065,12 +4193,14 @@
     <row r="22" spans="1:118">
       <c r="A22" s="2"/>
       <c r="B22" s="12" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -4100,25 +4230,25 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-      <c r="AH22" s="10"/>
-      <c r="AI22" s="10"/>
-      <c r="AJ22" s="10"/>
-      <c r="AK22" s="10"/>
-      <c r="AL22" s="10"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
       <c r="AM22" s="3"/>
       <c r="AN22" s="3"/>
-      <c r="AO22" s="10"/>
-      <c r="AP22" s="10"/>
-      <c r="AQ22" s="10"/>
-      <c r="AR22" s="10"/>
-      <c r="AS22" s="10"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="10"/>
-      <c r="AW22" s="10"/>
-      <c r="AX22" s="10"/>
-      <c r="AY22" s="10"/>
-      <c r="AZ22" s="10"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
       <c r="BA22" s="3"/>
       <c r="BB22" s="3"/>
       <c r="BC22" s="2"/>
@@ -4189,15 +4319,15 @@
     <row r="23" spans="1:118">
       <c r="A23" s="2"/>
       <c r="B23" s="12" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -4235,23 +4365,23 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
-      <c r="AS23" s="2"/>
+      <c r="AQ23" s="9"/>
+      <c r="AR23" s="9"/>
+      <c r="AS23" s="9"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
-      <c r="AX23" s="2"/>
-      <c r="AY23" s="2"/>
-      <c r="AZ23" s="2"/>
+      <c r="AV23" s="9"/>
+      <c r="AW23" s="9"/>
+      <c r="AX23" s="9"/>
+      <c r="AY23" s="9"/>
+      <c r="AZ23" s="9"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
-      <c r="BC23" s="5"/>
-      <c r="BD23" s="5"/>
-      <c r="BE23" s="5"/>
-      <c r="BF23" s="5"/>
-      <c r="BG23" s="2"/>
+      <c r="BC23" s="9"/>
+      <c r="BD23" s="9"/>
+      <c r="BE23" s="9"/>
+      <c r="BF23" s="9"/>
+      <c r="BG23" s="9"/>
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="2"/>
@@ -4315,12 +4445,14 @@
     <row r="24" spans="1:118">
       <c r="A24" s="2"/>
       <c r="B24" s="12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -4371,52 +4503,52 @@
       <c r="AZ24" s="2"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
-      <c r="BC24" s="2"/>
-      <c r="BD24" s="2"/>
-      <c r="BE24" s="2"/>
-      <c r="BF24" s="2"/>
-      <c r="BG24" s="2"/>
+      <c r="BC24" s="7"/>
+      <c r="BD24" s="7"/>
+      <c r="BE24" s="7"/>
+      <c r="BF24" s="7"/>
+      <c r="BG24" s="7"/>
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
-      <c r="BJ24" s="2"/>
-      <c r="BK24" s="2"/>
-      <c r="BL24" s="2"/>
-      <c r="BM24" s="2"/>
-      <c r="BN24" s="2"/>
+      <c r="BJ24" s="7"/>
+      <c r="BK24" s="7"/>
+      <c r="BL24" s="7"/>
+      <c r="BM24" s="7"/>
+      <c r="BN24" s="7"/>
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
-      <c r="BQ24" s="2"/>
-      <c r="BR24" s="2"/>
-      <c r="BS24" s="2"/>
-      <c r="BT24" s="2"/>
-      <c r="BU24" s="2"/>
+      <c r="BQ24" s="7"/>
+      <c r="BR24" s="7"/>
+      <c r="BS24" s="7"/>
+      <c r="BT24" s="7"/>
+      <c r="BU24" s="7"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
-      <c r="BX24" s="2"/>
-      <c r="BY24" s="2"/>
-      <c r="BZ24" s="2"/>
-      <c r="CA24" s="2"/>
-      <c r="CB24" s="2"/>
+      <c r="BX24" s="7"/>
+      <c r="BY24" s="7"/>
+      <c r="BZ24" s="7"/>
+      <c r="CA24" s="7"/>
+      <c r="CB24" s="7"/>
       <c r="CC24" s="3"/>
       <c r="CD24" s="3"/>
-      <c r="CE24" s="2"/>
-      <c r="CF24" s="2"/>
-      <c r="CG24" s="2"/>
-      <c r="CH24" s="2"/>
-      <c r="CI24" s="2"/>
+      <c r="CE24" s="7"/>
+      <c r="CF24" s="7"/>
+      <c r="CG24" s="7"/>
+      <c r="CH24" s="7"/>
+      <c r="CI24" s="7"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
-      <c r="CL24" s="11"/>
-      <c r="CM24" s="11"/>
-      <c r="CN24" s="11"/>
-      <c r="CO24" s="11"/>
-      <c r="CP24" s="11"/>
+      <c r="CL24" s="7"/>
+      <c r="CM24" s="7"/>
+      <c r="CN24" s="7"/>
+      <c r="CO24" s="7"/>
+      <c r="CP24" s="7"/>
       <c r="CQ24" s="3"/>
       <c r="CR24" s="3"/>
-      <c r="CS24" s="11"/>
-      <c r="CT24" s="11"/>
-      <c r="CU24" s="11"/>
-      <c r="CV24" s="11"/>
+      <c r="CS24" s="2"/>
+      <c r="CT24" s="2"/>
+      <c r="CU24" s="2"/>
+      <c r="CV24" s="2"/>
       <c r="CW24" s="2"/>
       <c r="CX24" s="3"/>
       <c r="CY24" s="3"/>
@@ -4439,12 +4571,14 @@
     <row r="25" spans="1:118">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -4495,10 +4629,10 @@
       <c r="AZ25" s="2"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
-      <c r="BC25" s="2"/>
-      <c r="BD25" s="2"/>
-      <c r="BE25" s="2"/>
-      <c r="BF25" s="2"/>
+      <c r="BC25" s="7"/>
+      <c r="BD25" s="7"/>
+      <c r="BE25" s="7"/>
+      <c r="BF25" s="7"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
@@ -4541,7 +4675,7 @@
       <c r="CT25" s="2"/>
       <c r="CU25" s="2"/>
       <c r="CV25" s="2"/>
-      <c r="CW25" s="8"/>
+      <c r="CW25" s="2"/>
       <c r="CX25" s="3"/>
       <c r="CY25" s="3"/>
       <c r="CZ25" s="3"/>
@@ -4563,15 +4697,15 @@
     <row r="26" spans="1:118">
       <c r="A26" s="2"/>
       <c r="B26" s="12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>18</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -4628,8 +4762,8 @@
       <c r="BG26" s="2"/>
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
-      <c r="BJ26" s="2"/>
-      <c r="BK26" s="2"/>
+      <c r="BJ26" s="7"/>
+      <c r="BK26" s="7"/>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
@@ -4671,8 +4805,8 @@
       <c r="CX26" s="3"/>
       <c r="CY26" s="3"/>
       <c r="CZ26" s="3"/>
-      <c r="DA26" s="5"/>
-      <c r="DB26" s="5"/>
+      <c r="DA26" s="2"/>
+      <c r="DB26" s="2"/>
       <c r="DC26" s="2"/>
       <c r="DD26" s="2"/>
       <c r="DE26" s="3"/>
@@ -4689,14 +4823,16 @@
     <row r="27" spans="1:118">
       <c r="A27" s="2"/>
       <c r="B27" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D27" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -4799,25 +4935,33 @@
       <c r="CZ27" s="3"/>
       <c r="DA27" s="2"/>
       <c r="DB27" s="2"/>
-      <c r="DC27" s="6"/>
-      <c r="DD27" s="6"/>
+      <c r="DC27" s="2"/>
+      <c r="DD27" s="2"/>
       <c r="DE27" s="3"/>
       <c r="DF27" s="3"/>
-      <c r="DG27" s="6"/>
-      <c r="DH27" s="6"/>
-      <c r="DI27" s="6"/>
-      <c r="DJ27" s="6"/>
-      <c r="DK27" s="6"/>
+      <c r="DG27" s="2"/>
+      <c r="DH27" s="2"/>
+      <c r="DI27" s="2"/>
+      <c r="DJ27" s="2"/>
+      <c r="DK27" s="2"/>
       <c r="DL27" s="3"/>
       <c r="DM27" s="3"/>
-      <c r="DN27" s="6"/>
+      <c r="DN27" s="2"/>
     </row>
     <row r="28" spans="1:118">
       <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="B28" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4846,25 +4990,25 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="2"/>
-      <c r="AL28" s="2"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="2"/>
-      <c r="AP28" s="2"/>
-      <c r="AQ28" s="2"/>
-      <c r="AR28" s="2"/>
-      <c r="AS28" s="2"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
-      <c r="AV28" s="2"/>
-      <c r="AW28" s="2"/>
-      <c r="AX28" s="2"/>
-      <c r="AY28" s="2"/>
-      <c r="AZ28" s="2"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
       <c r="BC28" s="2"/>
@@ -4934,10 +5078,18 @@
     </row>
     <row r="29" spans="1:118">
       <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="B29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -4987,10 +5139,10 @@
       <c r="AZ29" s="2"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
-      <c r="BC29" s="2"/>
-      <c r="BD29" s="2"/>
-      <c r="BE29" s="2"/>
-      <c r="BF29" s="2"/>
+      <c r="BC29" s="5"/>
+      <c r="BD29" s="5"/>
+      <c r="BE29" s="5"/>
+      <c r="BF29" s="5"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
@@ -5054,10 +5206,16 @@
     </row>
     <row r="30" spans="1:118">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="E30" s="2" t="s">
+        <v>59</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
@@ -5142,17 +5300,17 @@
       <c r="CI30" s="2"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="2"/>
-      <c r="CM30" s="2"/>
-      <c r="CN30" s="2"/>
-      <c r="CO30" s="2"/>
-      <c r="CP30" s="2"/>
+      <c r="CL30" s="11"/>
+      <c r="CM30" s="11"/>
+      <c r="CN30" s="11"/>
+      <c r="CO30" s="11"/>
+      <c r="CP30" s="11"/>
       <c r="CQ30" s="3"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="2"/>
-      <c r="CT30" s="2"/>
-      <c r="CU30" s="2"/>
-      <c r="CV30" s="2"/>
+      <c r="CS30" s="11"/>
+      <c r="CT30" s="11"/>
+      <c r="CU30" s="11"/>
+      <c r="CV30" s="11"/>
       <c r="CW30" s="2"/>
       <c r="CX30" s="3"/>
       <c r="CY30" s="3"/>
@@ -5174,10 +5332,18 @@
     </row>
     <row r="31" spans="1:118">
       <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
@@ -5273,7 +5439,7 @@
       <c r="CT31" s="2"/>
       <c r="CU31" s="2"/>
       <c r="CV31" s="2"/>
-      <c r="CW31" s="2"/>
+      <c r="CW31" s="8"/>
       <c r="CX31" s="3"/>
       <c r="CY31" s="3"/>
       <c r="CZ31" s="3"/>
@@ -5294,10 +5460,18 @@
     </row>
     <row r="32" spans="1:118">
       <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="B32" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
@@ -5397,8 +5571,8 @@
       <c r="CX32" s="3"/>
       <c r="CY32" s="3"/>
       <c r="CZ32" s="3"/>
-      <c r="DA32" s="2"/>
-      <c r="DB32" s="2"/>
+      <c r="DA32" s="5"/>
+      <c r="DB32" s="5"/>
       <c r="DC32" s="2"/>
       <c r="DD32" s="2"/>
       <c r="DE32" s="3"/>
@@ -5414,10 +5588,16 @@
     </row>
     <row r="33" spans="1:118">
       <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
+      <c r="B33" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
@@ -5519,18 +5699,738 @@
       <c r="CZ33" s="3"/>
       <c r="DA33" s="2"/>
       <c r="DB33" s="2"/>
-      <c r="DC33" s="2"/>
-      <c r="DD33" s="2"/>
+      <c r="DC33" s="6"/>
+      <c r="DD33" s="6"/>
       <c r="DE33" s="3"/>
       <c r="DF33" s="3"/>
-      <c r="DG33" s="2"/>
-      <c r="DH33" s="2"/>
-      <c r="DI33" s="2"/>
-      <c r="DJ33" s="2"/>
-      <c r="DK33" s="2"/>
+      <c r="DG33" s="6"/>
+      <c r="DH33" s="6"/>
+      <c r="DI33" s="6"/>
+      <c r="DJ33" s="6"/>
+      <c r="DK33" s="6"/>
       <c r="DL33" s="3"/>
       <c r="DM33" s="3"/>
-      <c r="DN33" s="2"/>
+      <c r="DN33" s="6"/>
+    </row>
+    <row r="34" spans="1:118">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="3"/>
+      <c r="S34" s="3"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="3"/>
+      <c r="Z34" s="3"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="3"/>
+      <c r="AD34" s="3"/>
+      <c r="AE34" s="3"/>
+      <c r="AF34" s="3"/>
+      <c r="AG34" s="3"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="3"/>
+      <c r="AN34" s="3"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+      <c r="AT34" s="3"/>
+      <c r="AU34" s="3"/>
+      <c r="AV34" s="2"/>
+      <c r="AW34" s="2"/>
+      <c r="AX34" s="2"/>
+      <c r="AY34" s="2"/>
+      <c r="AZ34" s="2"/>
+      <c r="BA34" s="3"/>
+      <c r="BB34" s="3"/>
+      <c r="BC34" s="2"/>
+      <c r="BD34" s="2"/>
+      <c r="BE34" s="2"/>
+      <c r="BF34" s="2"/>
+      <c r="BG34" s="2"/>
+      <c r="BH34" s="3"/>
+      <c r="BI34" s="3"/>
+      <c r="BJ34" s="2"/>
+      <c r="BK34" s="2"/>
+      <c r="BL34" s="2"/>
+      <c r="BM34" s="2"/>
+      <c r="BN34" s="2"/>
+      <c r="BO34" s="3"/>
+      <c r="BP34" s="3"/>
+      <c r="BQ34" s="2"/>
+      <c r="BR34" s="2"/>
+      <c r="BS34" s="2"/>
+      <c r="BT34" s="2"/>
+      <c r="BU34" s="2"/>
+      <c r="BV34" s="3"/>
+      <c r="BW34" s="3"/>
+      <c r="BX34" s="2"/>
+      <c r="BY34" s="2"/>
+      <c r="BZ34" s="2"/>
+      <c r="CA34" s="2"/>
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="3"/>
+      <c r="CD34" s="3"/>
+      <c r="CE34" s="2"/>
+      <c r="CF34" s="2"/>
+      <c r="CG34" s="2"/>
+      <c r="CH34" s="2"/>
+      <c r="CI34" s="2"/>
+      <c r="CJ34" s="3"/>
+      <c r="CK34" s="3"/>
+      <c r="CL34" s="2"/>
+      <c r="CM34" s="2"/>
+      <c r="CN34" s="2"/>
+      <c r="CO34" s="2"/>
+      <c r="CP34" s="2"/>
+      <c r="CQ34" s="3"/>
+      <c r="CR34" s="3"/>
+      <c r="CS34" s="2"/>
+      <c r="CT34" s="2"/>
+      <c r="CU34" s="2"/>
+      <c r="CV34" s="2"/>
+      <c r="CW34" s="2"/>
+      <c r="CX34" s="3"/>
+      <c r="CY34" s="3"/>
+      <c r="CZ34" s="3"/>
+      <c r="DA34" s="2"/>
+      <c r="DB34" s="2"/>
+      <c r="DC34" s="2"/>
+      <c r="DD34" s="2"/>
+      <c r="DE34" s="3"/>
+      <c r="DF34" s="3"/>
+      <c r="DG34" s="2"/>
+      <c r="DH34" s="2"/>
+      <c r="DI34" s="2"/>
+      <c r="DJ34" s="2"/>
+      <c r="DK34" s="2"/>
+      <c r="DL34" s="3"/>
+      <c r="DM34" s="3"/>
+      <c r="DN34" s="2"/>
+    </row>
+    <row r="35" spans="1:118">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="3"/>
+      <c r="S35" s="3"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="3"/>
+      <c r="Z35" s="3"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="3"/>
+      <c r="AD35" s="3"/>
+      <c r="AE35" s="3"/>
+      <c r="AF35" s="3"/>
+      <c r="AG35" s="3"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="3"/>
+      <c r="AN35" s="3"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+      <c r="AT35" s="3"/>
+      <c r="AU35" s="3"/>
+      <c r="AV35" s="2"/>
+      <c r="AW35" s="2"/>
+      <c r="AX35" s="2"/>
+      <c r="AY35" s="2"/>
+      <c r="AZ35" s="2"/>
+      <c r="BA35" s="3"/>
+      <c r="BB35" s="3"/>
+      <c r="BC35" s="2"/>
+      <c r="BD35" s="2"/>
+      <c r="BE35" s="2"/>
+      <c r="BF35" s="2"/>
+      <c r="BG35" s="2"/>
+      <c r="BH35" s="3"/>
+      <c r="BI35" s="3"/>
+      <c r="BJ35" s="2"/>
+      <c r="BK35" s="2"/>
+      <c r="BL35" s="2"/>
+      <c r="BM35" s="2"/>
+      <c r="BN35" s="2"/>
+      <c r="BO35" s="3"/>
+      <c r="BP35" s="3"/>
+      <c r="BQ35" s="2"/>
+      <c r="BR35" s="2"/>
+      <c r="BS35" s="2"/>
+      <c r="BT35" s="2"/>
+      <c r="BU35" s="2"/>
+      <c r="BV35" s="3"/>
+      <c r="BW35" s="3"/>
+      <c r="BX35" s="2"/>
+      <c r="BY35" s="2"/>
+      <c r="BZ35" s="2"/>
+      <c r="CA35" s="2"/>
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="3"/>
+      <c r="CD35" s="3"/>
+      <c r="CE35" s="2"/>
+      <c r="CF35" s="2"/>
+      <c r="CG35" s="2"/>
+      <c r="CH35" s="2"/>
+      <c r="CI35" s="2"/>
+      <c r="CJ35" s="3"/>
+      <c r="CK35" s="3"/>
+      <c r="CL35" s="2"/>
+      <c r="CM35" s="2"/>
+      <c r="CN35" s="2"/>
+      <c r="CO35" s="2"/>
+      <c r="CP35" s="2"/>
+      <c r="CQ35" s="3"/>
+      <c r="CR35" s="3"/>
+      <c r="CS35" s="2"/>
+      <c r="CT35" s="2"/>
+      <c r="CU35" s="2"/>
+      <c r="CV35" s="2"/>
+      <c r="CW35" s="2"/>
+      <c r="CX35" s="3"/>
+      <c r="CY35" s="3"/>
+      <c r="CZ35" s="3"/>
+      <c r="DA35" s="2"/>
+      <c r="DB35" s="2"/>
+      <c r="DC35" s="2"/>
+      <c r="DD35" s="2"/>
+      <c r="DE35" s="3"/>
+      <c r="DF35" s="3"/>
+      <c r="DG35" s="2"/>
+      <c r="DH35" s="2"/>
+      <c r="DI35" s="2"/>
+      <c r="DJ35" s="2"/>
+      <c r="DK35" s="2"/>
+      <c r="DL35" s="3"/>
+      <c r="DM35" s="3"/>
+      <c r="DN35" s="2"/>
+    </row>
+    <row r="36" spans="1:118">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+      <c r="S36" s="3"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="3"/>
+      <c r="Z36" s="3"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="3"/>
+      <c r="AD36" s="3"/>
+      <c r="AE36" s="3"/>
+      <c r="AF36" s="3"/>
+      <c r="AG36" s="3"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="3"/>
+      <c r="AN36" s="3"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+      <c r="AT36" s="3"/>
+      <c r="AU36" s="3"/>
+      <c r="AV36" s="2"/>
+      <c r="AW36" s="2"/>
+      <c r="AX36" s="2"/>
+      <c r="AY36" s="2"/>
+      <c r="AZ36" s="2"/>
+      <c r="BA36" s="3"/>
+      <c r="BB36" s="3"/>
+      <c r="BC36" s="2"/>
+      <c r="BD36" s="2"/>
+      <c r="BE36" s="2"/>
+      <c r="BF36" s="2"/>
+      <c r="BG36" s="2"/>
+      <c r="BH36" s="3"/>
+      <c r="BI36" s="3"/>
+      <c r="BJ36" s="2"/>
+      <c r="BK36" s="2"/>
+      <c r="BL36" s="2"/>
+      <c r="BM36" s="2"/>
+      <c r="BN36" s="2"/>
+      <c r="BO36" s="3"/>
+      <c r="BP36" s="3"/>
+      <c r="BQ36" s="2"/>
+      <c r="BR36" s="2"/>
+      <c r="BS36" s="2"/>
+      <c r="BT36" s="2"/>
+      <c r="BU36" s="2"/>
+      <c r="BV36" s="3"/>
+      <c r="BW36" s="3"/>
+      <c r="BX36" s="2"/>
+      <c r="BY36" s="2"/>
+      <c r="BZ36" s="2"/>
+      <c r="CA36" s="2"/>
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="3"/>
+      <c r="CD36" s="3"/>
+      <c r="CE36" s="2"/>
+      <c r="CF36" s="2"/>
+      <c r="CG36" s="2"/>
+      <c r="CH36" s="2"/>
+      <c r="CI36" s="2"/>
+      <c r="CJ36" s="3"/>
+      <c r="CK36" s="3"/>
+      <c r="CL36" s="2"/>
+      <c r="CM36" s="2"/>
+      <c r="CN36" s="2"/>
+      <c r="CO36" s="2"/>
+      <c r="CP36" s="2"/>
+      <c r="CQ36" s="3"/>
+      <c r="CR36" s="3"/>
+      <c r="CS36" s="2"/>
+      <c r="CT36" s="2"/>
+      <c r="CU36" s="2"/>
+      <c r="CV36" s="2"/>
+      <c r="CW36" s="2"/>
+      <c r="CX36" s="3"/>
+      <c r="CY36" s="3"/>
+      <c r="CZ36" s="3"/>
+      <c r="DA36" s="2"/>
+      <c r="DB36" s="2"/>
+      <c r="DC36" s="2"/>
+      <c r="DD36" s="2"/>
+      <c r="DE36" s="3"/>
+      <c r="DF36" s="3"/>
+      <c r="DG36" s="2"/>
+      <c r="DH36" s="2"/>
+      <c r="DI36" s="2"/>
+      <c r="DJ36" s="2"/>
+      <c r="DK36" s="2"/>
+      <c r="DL36" s="3"/>
+      <c r="DM36" s="3"/>
+      <c r="DN36" s="2"/>
+    </row>
+    <row r="37" spans="1:118">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="3"/>
+      <c r="S37" s="3"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="3"/>
+      <c r="Z37" s="3"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="3"/>
+      <c r="AD37" s="3"/>
+      <c r="AE37" s="3"/>
+      <c r="AF37" s="3"/>
+      <c r="AG37" s="3"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="3"/>
+      <c r="AN37" s="3"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+      <c r="AT37" s="3"/>
+      <c r="AU37" s="3"/>
+      <c r="AV37" s="2"/>
+      <c r="AW37" s="2"/>
+      <c r="AX37" s="2"/>
+      <c r="AY37" s="2"/>
+      <c r="AZ37" s="2"/>
+      <c r="BA37" s="3"/>
+      <c r="BB37" s="3"/>
+      <c r="BC37" s="2"/>
+      <c r="BD37" s="2"/>
+      <c r="BE37" s="2"/>
+      <c r="BF37" s="2"/>
+      <c r="BG37" s="2"/>
+      <c r="BH37" s="3"/>
+      <c r="BI37" s="3"/>
+      <c r="BJ37" s="2"/>
+      <c r="BK37" s="2"/>
+      <c r="BL37" s="2"/>
+      <c r="BM37" s="2"/>
+      <c r="BN37" s="2"/>
+      <c r="BO37" s="3"/>
+      <c r="BP37" s="3"/>
+      <c r="BQ37" s="2"/>
+      <c r="BR37" s="2"/>
+      <c r="BS37" s="2"/>
+      <c r="BT37" s="2"/>
+      <c r="BU37" s="2"/>
+      <c r="BV37" s="3"/>
+      <c r="BW37" s="3"/>
+      <c r="BX37" s="2"/>
+      <c r="BY37" s="2"/>
+      <c r="BZ37" s="2"/>
+      <c r="CA37" s="2"/>
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="3"/>
+      <c r="CD37" s="3"/>
+      <c r="CE37" s="2"/>
+      <c r="CF37" s="2"/>
+      <c r="CG37" s="2"/>
+      <c r="CH37" s="2"/>
+      <c r="CI37" s="2"/>
+      <c r="CJ37" s="3"/>
+      <c r="CK37" s="3"/>
+      <c r="CL37" s="2"/>
+      <c r="CM37" s="2"/>
+      <c r="CN37" s="2"/>
+      <c r="CO37" s="2"/>
+      <c r="CP37" s="2"/>
+      <c r="CQ37" s="3"/>
+      <c r="CR37" s="3"/>
+      <c r="CS37" s="2"/>
+      <c r="CT37" s="2"/>
+      <c r="CU37" s="2"/>
+      <c r="CV37" s="2"/>
+      <c r="CW37" s="2"/>
+      <c r="CX37" s="3"/>
+      <c r="CY37" s="3"/>
+      <c r="CZ37" s="3"/>
+      <c r="DA37" s="2"/>
+      <c r="DB37" s="2"/>
+      <c r="DC37" s="2"/>
+      <c r="DD37" s="2"/>
+      <c r="DE37" s="3"/>
+      <c r="DF37" s="3"/>
+      <c r="DG37" s="2"/>
+      <c r="DH37" s="2"/>
+      <c r="DI37" s="2"/>
+      <c r="DJ37" s="2"/>
+      <c r="DK37" s="2"/>
+      <c r="DL37" s="3"/>
+      <c r="DM37" s="3"/>
+      <c r="DN37" s="2"/>
+    </row>
+    <row r="38" spans="1:118">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="3"/>
+      <c r="S38" s="3"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="3"/>
+      <c r="Z38" s="3"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="3"/>
+      <c r="AD38" s="3"/>
+      <c r="AE38" s="3"/>
+      <c r="AF38" s="3"/>
+      <c r="AG38" s="3"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="3"/>
+      <c r="AN38" s="3"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+      <c r="AT38" s="3"/>
+      <c r="AU38" s="3"/>
+      <c r="AV38" s="2"/>
+      <c r="AW38" s="2"/>
+      <c r="AX38" s="2"/>
+      <c r="AY38" s="2"/>
+      <c r="AZ38" s="2"/>
+      <c r="BA38" s="3"/>
+      <c r="BB38" s="3"/>
+      <c r="BC38" s="2"/>
+      <c r="BD38" s="2"/>
+      <c r="BE38" s="2"/>
+      <c r="BF38" s="2"/>
+      <c r="BG38" s="2"/>
+      <c r="BH38" s="3"/>
+      <c r="BI38" s="3"/>
+      <c r="BJ38" s="2"/>
+      <c r="BK38" s="2"/>
+      <c r="BL38" s="2"/>
+      <c r="BM38" s="2"/>
+      <c r="BN38" s="2"/>
+      <c r="BO38" s="3"/>
+      <c r="BP38" s="3"/>
+      <c r="BQ38" s="2"/>
+      <c r="BR38" s="2"/>
+      <c r="BS38" s="2"/>
+      <c r="BT38" s="2"/>
+      <c r="BU38" s="2"/>
+      <c r="BV38" s="3"/>
+      <c r="BW38" s="3"/>
+      <c r="BX38" s="2"/>
+      <c r="BY38" s="2"/>
+      <c r="BZ38" s="2"/>
+      <c r="CA38" s="2"/>
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="3"/>
+      <c r="CD38" s="3"/>
+      <c r="CE38" s="2"/>
+      <c r="CF38" s="2"/>
+      <c r="CG38" s="2"/>
+      <c r="CH38" s="2"/>
+      <c r="CI38" s="2"/>
+      <c r="CJ38" s="3"/>
+      <c r="CK38" s="3"/>
+      <c r="CL38" s="2"/>
+      <c r="CM38" s="2"/>
+      <c r="CN38" s="2"/>
+      <c r="CO38" s="2"/>
+      <c r="CP38" s="2"/>
+      <c r="CQ38" s="3"/>
+      <c r="CR38" s="3"/>
+      <c r="CS38" s="2"/>
+      <c r="CT38" s="2"/>
+      <c r="CU38" s="2"/>
+      <c r="CV38" s="2"/>
+      <c r="CW38" s="2"/>
+      <c r="CX38" s="3"/>
+      <c r="CY38" s="3"/>
+      <c r="CZ38" s="3"/>
+      <c r="DA38" s="2"/>
+      <c r="DB38" s="2"/>
+      <c r="DC38" s="2"/>
+      <c r="DD38" s="2"/>
+      <c r="DE38" s="3"/>
+      <c r="DF38" s="3"/>
+      <c r="DG38" s="2"/>
+      <c r="DH38" s="2"/>
+      <c r="DI38" s="2"/>
+      <c r="DJ38" s="2"/>
+      <c r="DK38" s="2"/>
+      <c r="DL38" s="3"/>
+      <c r="DM38" s="3"/>
+      <c r="DN38" s="2"/>
+    </row>
+    <row r="39" spans="1:118">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="3"/>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+      <c r="AF39" s="3"/>
+      <c r="AG39" s="3"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="3"/>
+      <c r="AN39" s="3"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+      <c r="AT39" s="3"/>
+      <c r="AU39" s="3"/>
+      <c r="AV39" s="2"/>
+      <c r="AW39" s="2"/>
+      <c r="AX39" s="2"/>
+      <c r="AY39" s="2"/>
+      <c r="AZ39" s="2"/>
+      <c r="BA39" s="3"/>
+      <c r="BB39" s="3"/>
+      <c r="BC39" s="2"/>
+      <c r="BD39" s="2"/>
+      <c r="BE39" s="2"/>
+      <c r="BF39" s="2"/>
+      <c r="BG39" s="2"/>
+      <c r="BH39" s="3"/>
+      <c r="BI39" s="3"/>
+      <c r="BJ39" s="2"/>
+      <c r="BK39" s="2"/>
+      <c r="BL39" s="2"/>
+      <c r="BM39" s="2"/>
+      <c r="BN39" s="2"/>
+      <c r="BO39" s="3"/>
+      <c r="BP39" s="3"/>
+      <c r="BQ39" s="2"/>
+      <c r="BR39" s="2"/>
+      <c r="BS39" s="2"/>
+      <c r="BT39" s="2"/>
+      <c r="BU39" s="2"/>
+      <c r="BV39" s="3"/>
+      <c r="BW39" s="3"/>
+      <c r="BX39" s="2"/>
+      <c r="BY39" s="2"/>
+      <c r="BZ39" s="2"/>
+      <c r="CA39" s="2"/>
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="3"/>
+      <c r="CD39" s="3"/>
+      <c r="CE39" s="2"/>
+      <c r="CF39" s="2"/>
+      <c r="CG39" s="2"/>
+      <c r="CH39" s="2"/>
+      <c r="CI39" s="2"/>
+      <c r="CJ39" s="3"/>
+      <c r="CK39" s="3"/>
+      <c r="CL39" s="2"/>
+      <c r="CM39" s="2"/>
+      <c r="CN39" s="2"/>
+      <c r="CO39" s="2"/>
+      <c r="CP39" s="2"/>
+      <c r="CQ39" s="3"/>
+      <c r="CR39" s="3"/>
+      <c r="CS39" s="2"/>
+      <c r="CT39" s="2"/>
+      <c r="CU39" s="2"/>
+      <c r="CV39" s="2"/>
+      <c r="CW39" s="2"/>
+      <c r="CX39" s="3"/>
+      <c r="CY39" s="3"/>
+      <c r="CZ39" s="3"/>
+      <c r="DA39" s="2"/>
+      <c r="DB39" s="2"/>
+      <c r="DC39" s="2"/>
+      <c r="DD39" s="2"/>
+      <c r="DE39" s="3"/>
+      <c r="DF39" s="3"/>
+      <c r="DG39" s="2"/>
+      <c r="DH39" s="2"/>
+      <c r="DI39" s="2"/>
+      <c r="DJ39" s="2"/>
+      <c r="DK39" s="2"/>
+      <c r="DL39" s="3"/>
+      <c r="DM39" s="3"/>
+      <c r="DN39" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5549,7 +6449,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$C$4:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C33</xm:sqref>
+          <xm:sqref>C4:C39</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5572,32 +6472,32 @@
   <sheetData>
     <row r="4" spans="3:3">
       <c r="C4" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="3:3">
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="3:3">
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -5607,6 +6507,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -5750,22 +6665,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5781,21 +6698,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB7FD3C-E2D0-4808-8B1E-345084C6607D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E754F3F-04CD-40B5-BA42-91CD6A67A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -521,6 +521,36 @@
     <t>鶴田、松尾</t>
     <rPh sb="3" eb="5">
       <t>マツオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> ゲストログイン画面</t>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> パスワード忘れた　変更</t>
+    <rPh sb="6" eb="9">
+      <t>ワス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　新規登録確認画面</t>
+    <rPh sb="1" eb="3">
+      <t>シンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -960,13 +990,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{711CCBEE-EF5C-425E-9E1A-BEF9ED1F8485}">
-  <dimension ref="A1:DN39"/>
+  <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E13" sqref="E13"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2569,7 +2599,6 @@
       <c r="L9" s="3"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="7"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="3"/>
@@ -3314,7 +3343,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -3437,10 +3466,10 @@
     <row r="16" spans="1:118">
       <c r="A16" s="2"/>
       <c r="B16" s="12" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>55</v>
@@ -3483,13 +3512,13 @@
       <c r="AN16" s="3"/>
       <c r="AO16" s="2"/>
       <c r="AP16" s="2"/>
-      <c r="AQ16" s="2"/>
-      <c r="AR16" s="2"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
       <c r="AS16" s="2"/>
       <c r="AT16" s="3"/>
       <c r="AU16" s="3"/>
-      <c r="AV16" s="8"/>
-      <c r="AW16" s="8"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
       <c r="AX16" s="2"/>
       <c r="AY16" s="2"/>
       <c r="AZ16" s="2"/>
@@ -3563,10 +3592,10 @@
     <row r="17" spans="1:118">
       <c r="A17" s="2"/>
       <c r="B17" s="12" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>55</v>
@@ -3689,10 +3718,10 @@
     <row r="18" spans="1:118">
       <c r="A18" s="2"/>
       <c r="B18" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -3815,10 +3844,10 @@
     <row r="19" spans="1:118">
       <c r="A19" s="2"/>
       <c r="B19" s="12" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -3941,10 +3970,10 @@
     <row r="20" spans="1:118">
       <c r="A20" s="2"/>
       <c r="B20" s="12" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>55</v>
@@ -4067,14 +4096,10 @@
     <row r="21" spans="1:118">
       <c r="A21" s="2"/>
       <c r="B21" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>55</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4193,13 +4218,13 @@
     <row r="22" spans="1:118">
       <c r="A22" s="2"/>
       <c r="B22" s="12" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -4244,8 +4269,8 @@
       <c r="AS22" s="2"/>
       <c r="AT22" s="3"/>
       <c r="AU22" s="3"/>
-      <c r="AV22" s="2"/>
-      <c r="AW22" s="2"/>
+      <c r="AV22" s="8"/>
+      <c r="AW22" s="8"/>
       <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
       <c r="AZ22" s="2"/>
@@ -4319,13 +4344,13 @@
     <row r="23" spans="1:118">
       <c r="A23" s="2"/>
       <c r="B23" s="12" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -4365,23 +4390,23 @@
       <c r="AN23" s="3"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="9"/>
-      <c r="AR23" s="9"/>
-      <c r="AS23" s="9"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
       <c r="AT23" s="3"/>
       <c r="AU23" s="3"/>
-      <c r="AV23" s="9"/>
-      <c r="AW23" s="9"/>
-      <c r="AX23" s="9"/>
-      <c r="AY23" s="9"/>
-      <c r="AZ23" s="9"/>
+      <c r="AV23" s="8"/>
+      <c r="AW23" s="8"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
       <c r="BA23" s="3"/>
       <c r="BB23" s="3"/>
-      <c r="BC23" s="9"/>
-      <c r="BD23" s="9"/>
-      <c r="BE23" s="9"/>
-      <c r="BF23" s="9"/>
-      <c r="BG23" s="9"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
       <c r="BH23" s="3"/>
       <c r="BI23" s="3"/>
       <c r="BJ23" s="2"/>
@@ -4445,13 +4470,13 @@
     <row r="24" spans="1:118">
       <c r="A24" s="2"/>
       <c r="B24" s="12" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -4496,53 +4521,53 @@
       <c r="AS24" s="2"/>
       <c r="AT24" s="3"/>
       <c r="AU24" s="3"/>
-      <c r="AV24" s="2"/>
-      <c r="AW24" s="2"/>
+      <c r="AV24" s="8"/>
+      <c r="AW24" s="8"/>
       <c r="AX24" s="2"/>
       <c r="AY24" s="2"/>
       <c r="AZ24" s="2"/>
       <c r="BA24" s="3"/>
       <c r="BB24" s="3"/>
-      <c r="BC24" s="7"/>
-      <c r="BD24" s="7"/>
-      <c r="BE24" s="7"/>
-      <c r="BF24" s="7"/>
-      <c r="BG24" s="7"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
       <c r="BH24" s="3"/>
       <c r="BI24" s="3"/>
-      <c r="BJ24" s="7"/>
-      <c r="BK24" s="7"/>
-      <c r="BL24" s="7"/>
-      <c r="BM24" s="7"/>
-      <c r="BN24" s="7"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
       <c r="BO24" s="3"/>
       <c r="BP24" s="3"/>
-      <c r="BQ24" s="7"/>
-      <c r="BR24" s="7"/>
-      <c r="BS24" s="7"/>
-      <c r="BT24" s="7"/>
-      <c r="BU24" s="7"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
       <c r="BV24" s="3"/>
       <c r="BW24" s="3"/>
-      <c r="BX24" s="7"/>
-      <c r="BY24" s="7"/>
-      <c r="BZ24" s="7"/>
-      <c r="CA24" s="7"/>
-      <c r="CB24" s="7"/>
+      <c r="BX24" s="2"/>
+      <c r="BY24" s="2"/>
+      <c r="BZ24" s="2"/>
+      <c r="CA24" s="2"/>
+      <c r="CB24" s="2"/>
       <c r="CC24" s="3"/>
       <c r="CD24" s="3"/>
-      <c r="CE24" s="7"/>
-      <c r="CF24" s="7"/>
-      <c r="CG24" s="7"/>
-      <c r="CH24" s="7"/>
-      <c r="CI24" s="7"/>
+      <c r="CE24" s="2"/>
+      <c r="CF24" s="2"/>
+      <c r="CG24" s="2"/>
+      <c r="CH24" s="2"/>
+      <c r="CI24" s="2"/>
       <c r="CJ24" s="3"/>
       <c r="CK24" s="3"/>
-      <c r="CL24" s="7"/>
-      <c r="CM24" s="7"/>
-      <c r="CN24" s="7"/>
-      <c r="CO24" s="7"/>
-      <c r="CP24" s="7"/>
+      <c r="CL24" s="2"/>
+      <c r="CM24" s="2"/>
+      <c r="CN24" s="2"/>
+      <c r="CO24" s="2"/>
+      <c r="CP24" s="2"/>
       <c r="CQ24" s="3"/>
       <c r="CR24" s="3"/>
       <c r="CS24" s="2"/>
@@ -4571,13 +4596,13 @@
     <row r="25" spans="1:118">
       <c r="A25" s="2"/>
       <c r="B25" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -4629,10 +4654,10 @@
       <c r="AZ25" s="2"/>
       <c r="BA25" s="3"/>
       <c r="BB25" s="3"/>
-      <c r="BC25" s="7"/>
-      <c r="BD25" s="7"/>
-      <c r="BE25" s="7"/>
-      <c r="BF25" s="7"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
       <c r="BG25" s="2"/>
       <c r="BH25" s="3"/>
       <c r="BI25" s="3"/>
@@ -4697,13 +4722,13 @@
     <row r="26" spans="1:118">
       <c r="A26" s="2"/>
       <c r="B26" s="12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -4743,27 +4768,27 @@
       <c r="AN26" s="3"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
-      <c r="AR26" s="2"/>
-      <c r="AS26" s="2"/>
+      <c r="AQ26" s="9"/>
+      <c r="AR26" s="9"/>
+      <c r="AS26" s="9"/>
       <c r="AT26" s="3"/>
       <c r="AU26" s="3"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
-      <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
-      <c r="AZ26" s="2"/>
+      <c r="AV26" s="9"/>
+      <c r="AW26" s="9"/>
+      <c r="AX26" s="9"/>
+      <c r="AY26" s="9"/>
+      <c r="AZ26" s="9"/>
       <c r="BA26" s="3"/>
       <c r="BB26" s="3"/>
-      <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
-      <c r="BE26" s="2"/>
-      <c r="BF26" s="2"/>
-      <c r="BG26" s="2"/>
+      <c r="BC26" s="9"/>
+      <c r="BD26" s="9"/>
+      <c r="BE26" s="9"/>
+      <c r="BF26" s="9"/>
+      <c r="BG26" s="9"/>
       <c r="BH26" s="3"/>
       <c r="BI26" s="3"/>
-      <c r="BJ26" s="7"/>
-      <c r="BK26" s="7"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
       <c r="BM26" s="2"/>
       <c r="BN26" s="2"/>
@@ -4823,17 +4848,15 @@
     <row r="27" spans="1:118">
       <c r="A27" s="2"/>
       <c r="B27" s="12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -4883,46 +4906,46 @@
       <c r="AZ27" s="2"/>
       <c r="BA27" s="3"/>
       <c r="BB27" s="3"/>
-      <c r="BC27" s="2"/>
-      <c r="BD27" s="2"/>
-      <c r="BE27" s="2"/>
-      <c r="BF27" s="2"/>
-      <c r="BG27" s="2"/>
+      <c r="BC27" s="7"/>
+      <c r="BD27" s="7"/>
+      <c r="BE27" s="7"/>
+      <c r="BF27" s="7"/>
+      <c r="BG27" s="7"/>
       <c r="BH27" s="3"/>
       <c r="BI27" s="3"/>
-      <c r="BJ27" s="2"/>
-      <c r="BK27" s="2"/>
-      <c r="BL27" s="2"/>
-      <c r="BM27" s="2"/>
-      <c r="BN27" s="2"/>
+      <c r="BJ27" s="7"/>
+      <c r="BK27" s="7"/>
+      <c r="BL27" s="7"/>
+      <c r="BM27" s="7"/>
+      <c r="BN27" s="7"/>
       <c r="BO27" s="3"/>
       <c r="BP27" s="3"/>
-      <c r="BQ27" s="2"/>
-      <c r="BR27" s="2"/>
-      <c r="BS27" s="2"/>
-      <c r="BT27" s="2"/>
-      <c r="BU27" s="2"/>
+      <c r="BQ27" s="7"/>
+      <c r="BR27" s="7"/>
+      <c r="BS27" s="7"/>
+      <c r="BT27" s="7"/>
+      <c r="BU27" s="7"/>
       <c r="BV27" s="3"/>
       <c r="BW27" s="3"/>
-      <c r="BX27" s="2"/>
-      <c r="BY27" s="2"/>
-      <c r="BZ27" s="2"/>
-      <c r="CA27" s="2"/>
-      <c r="CB27" s="2"/>
+      <c r="BX27" s="7"/>
+      <c r="BY27" s="7"/>
+      <c r="BZ27" s="7"/>
+      <c r="CA27" s="7"/>
+      <c r="CB27" s="7"/>
       <c r="CC27" s="3"/>
       <c r="CD27" s="3"/>
-      <c r="CE27" s="2"/>
-      <c r="CF27" s="2"/>
-      <c r="CG27" s="2"/>
-      <c r="CH27" s="2"/>
-      <c r="CI27" s="2"/>
+      <c r="CE27" s="7"/>
+      <c r="CF27" s="7"/>
+      <c r="CG27" s="7"/>
+      <c r="CH27" s="7"/>
+      <c r="CI27" s="7"/>
       <c r="CJ27" s="3"/>
       <c r="CK27" s="3"/>
-      <c r="CL27" s="2"/>
-      <c r="CM27" s="2"/>
-      <c r="CN27" s="2"/>
-      <c r="CO27" s="2"/>
-      <c r="CP27" s="2"/>
+      <c r="CL27" s="7"/>
+      <c r="CM27" s="7"/>
+      <c r="CN27" s="7"/>
+      <c r="CO27" s="7"/>
+      <c r="CP27" s="7"/>
       <c r="CQ27" s="3"/>
       <c r="CR27" s="3"/>
       <c r="CS27" s="2"/>
@@ -4951,17 +4974,15 @@
     <row r="28" spans="1:118">
       <c r="A28" s="2"/>
       <c r="B28" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>64</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -4990,31 +5011,31 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-      <c r="AH28" s="10"/>
-      <c r="AI28" s="10"/>
-      <c r="AJ28" s="10"/>
-      <c r="AK28" s="10"/>
-      <c r="AL28" s="10"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
       <c r="AM28" s="3"/>
       <c r="AN28" s="3"/>
-      <c r="AO28" s="10"/>
-      <c r="AP28" s="10"/>
-      <c r="AQ28" s="10"/>
-      <c r="AR28" s="10"/>
-      <c r="AS28" s="10"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
       <c r="AT28" s="3"/>
       <c r="AU28" s="3"/>
-      <c r="AV28" s="10"/>
-      <c r="AW28" s="10"/>
-      <c r="AX28" s="10"/>
-      <c r="AY28" s="10"/>
-      <c r="AZ28" s="10"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
       <c r="BA28" s="3"/>
       <c r="BB28" s="3"/>
-      <c r="BC28" s="2"/>
-      <c r="BD28" s="2"/>
-      <c r="BE28" s="2"/>
-      <c r="BF28" s="2"/>
+      <c r="BC28" s="7"/>
+      <c r="BD28" s="7"/>
+      <c r="BE28" s="7"/>
+      <c r="BF28" s="7"/>
       <c r="BG28" s="2"/>
       <c r="BH28" s="3"/>
       <c r="BI28" s="3"/>
@@ -5079,17 +5100,15 @@
     <row r="29" spans="1:118">
       <c r="A29" s="2"/>
       <c r="B29" s="12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -5139,15 +5158,15 @@
       <c r="AZ29" s="2"/>
       <c r="BA29" s="3"/>
       <c r="BB29" s="3"/>
-      <c r="BC29" s="5"/>
-      <c r="BD29" s="5"/>
-      <c r="BE29" s="5"/>
-      <c r="BF29" s="5"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
       <c r="BG29" s="2"/>
       <c r="BH29" s="3"/>
       <c r="BI29" s="3"/>
-      <c r="BJ29" s="2"/>
-      <c r="BK29" s="2"/>
+      <c r="BJ29" s="7"/>
+      <c r="BK29" s="7"/>
       <c r="BL29" s="2"/>
       <c r="BM29" s="2"/>
       <c r="BN29" s="2"/>
@@ -5207,14 +5226,16 @@
     <row r="30" spans="1:118">
       <c r="A30" s="2"/>
       <c r="B30" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="2"/>
+      <c r="D30" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="E30" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
@@ -5300,17 +5321,17 @@
       <c r="CI30" s="2"/>
       <c r="CJ30" s="3"/>
       <c r="CK30" s="3"/>
-      <c r="CL30" s="11"/>
-      <c r="CM30" s="11"/>
-      <c r="CN30" s="11"/>
-      <c r="CO30" s="11"/>
-      <c r="CP30" s="11"/>
+      <c r="CL30" s="2"/>
+      <c r="CM30" s="2"/>
+      <c r="CN30" s="2"/>
+      <c r="CO30" s="2"/>
+      <c r="CP30" s="2"/>
       <c r="CQ30" s="3"/>
       <c r="CR30" s="3"/>
-      <c r="CS30" s="11"/>
-      <c r="CT30" s="11"/>
-      <c r="CU30" s="11"/>
-      <c r="CV30" s="11"/>
+      <c r="CS30" s="2"/>
+      <c r="CT30" s="2"/>
+      <c r="CU30" s="2"/>
+      <c r="CV30" s="2"/>
       <c r="CW30" s="2"/>
       <c r="CX30" s="3"/>
       <c r="CY30" s="3"/>
@@ -5333,13 +5354,13 @@
     <row r="31" spans="1:118">
       <c r="A31" s="2"/>
       <c r="B31" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>64</v>
@@ -5372,25 +5393,25 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-      <c r="AL31" s="2"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
       <c r="AM31" s="3"/>
       <c r="AN31" s="3"/>
-      <c r="AO31" s="2"/>
-      <c r="AP31" s="2"/>
-      <c r="AQ31" s="2"/>
-      <c r="AR31" s="2"/>
-      <c r="AS31" s="2"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
       <c r="AT31" s="3"/>
       <c r="AU31" s="3"/>
-      <c r="AV31" s="2"/>
-      <c r="AW31" s="2"/>
-      <c r="AX31" s="2"/>
-      <c r="AY31" s="2"/>
-      <c r="AZ31" s="2"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
       <c r="BA31" s="3"/>
       <c r="BB31" s="3"/>
       <c r="BC31" s="2"/>
@@ -5439,7 +5460,7 @@
       <c r="CT31" s="2"/>
       <c r="CU31" s="2"/>
       <c r="CV31" s="2"/>
-      <c r="CW31" s="8"/>
+      <c r="CW31" s="2"/>
       <c r="CX31" s="3"/>
       <c r="CY31" s="3"/>
       <c r="CZ31" s="3"/>
@@ -5461,13 +5482,13 @@
     <row r="32" spans="1:118">
       <c r="A32" s="2"/>
       <c r="B32" s="12" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>17</v>
@@ -5521,10 +5542,10 @@
       <c r="AZ32" s="2"/>
       <c r="BA32" s="3"/>
       <c r="BB32" s="3"/>
-      <c r="BC32" s="2"/>
-      <c r="BD32" s="2"/>
-      <c r="BE32" s="2"/>
-      <c r="BF32" s="2"/>
+      <c r="BC32" s="5"/>
+      <c r="BD32" s="5"/>
+      <c r="BE32" s="5"/>
+      <c r="BF32" s="5"/>
       <c r="BG32" s="2"/>
       <c r="BH32" s="3"/>
       <c r="BI32" s="3"/>
@@ -5571,8 +5592,8 @@
       <c r="CX32" s="3"/>
       <c r="CY32" s="3"/>
       <c r="CZ32" s="3"/>
-      <c r="DA32" s="5"/>
-      <c r="DB32" s="5"/>
+      <c r="DA32" s="2"/>
+      <c r="DB32" s="2"/>
       <c r="DC32" s="2"/>
       <c r="DD32" s="2"/>
       <c r="DE32" s="3"/>
@@ -5589,14 +5610,14 @@
     <row r="33" spans="1:118">
       <c r="A33" s="2"/>
       <c r="B33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
-        <v>17</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -5682,42 +5703,50 @@
       <c r="CI33" s="2"/>
       <c r="CJ33" s="3"/>
       <c r="CK33" s="3"/>
-      <c r="CL33" s="2"/>
-      <c r="CM33" s="2"/>
-      <c r="CN33" s="2"/>
-      <c r="CO33" s="2"/>
-      <c r="CP33" s="2"/>
+      <c r="CL33" s="11"/>
+      <c r="CM33" s="11"/>
+      <c r="CN33" s="11"/>
+      <c r="CO33" s="11"/>
+      <c r="CP33" s="11"/>
       <c r="CQ33" s="3"/>
       <c r="CR33" s="3"/>
-      <c r="CS33" s="2"/>
-      <c r="CT33" s="2"/>
-      <c r="CU33" s="2"/>
-      <c r="CV33" s="2"/>
+      <c r="CS33" s="11"/>
+      <c r="CT33" s="11"/>
+      <c r="CU33" s="11"/>
+      <c r="CV33" s="11"/>
       <c r="CW33" s="2"/>
       <c r="CX33" s="3"/>
       <c r="CY33" s="3"/>
       <c r="CZ33" s="3"/>
       <c r="DA33" s="2"/>
       <c r="DB33" s="2"/>
-      <c r="DC33" s="6"/>
-      <c r="DD33" s="6"/>
+      <c r="DC33" s="2"/>
+      <c r="DD33" s="2"/>
       <c r="DE33" s="3"/>
       <c r="DF33" s="3"/>
-      <c r="DG33" s="6"/>
-      <c r="DH33" s="6"/>
-      <c r="DI33" s="6"/>
-      <c r="DJ33" s="6"/>
-      <c r="DK33" s="6"/>
+      <c r="DG33" s="2"/>
+      <c r="DH33" s="2"/>
+      <c r="DI33" s="2"/>
+      <c r="DJ33" s="2"/>
+      <c r="DK33" s="2"/>
       <c r="DL33" s="3"/>
       <c r="DM33" s="3"/>
-      <c r="DN33" s="6"/>
+      <c r="DN33" s="2"/>
     </row>
     <row r="34" spans="1:118">
       <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="B34" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
@@ -5813,7 +5842,7 @@
       <c r="CT34" s="2"/>
       <c r="CU34" s="2"/>
       <c r="CV34" s="2"/>
-      <c r="CW34" s="2"/>
+      <c r="CW34" s="8"/>
       <c r="CX34" s="3"/>
       <c r="CY34" s="3"/>
       <c r="CZ34" s="3"/>
@@ -5834,10 +5863,18 @@
     </row>
     <row r="35" spans="1:118">
       <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="B35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -5937,8 +5974,8 @@
       <c r="CX35" s="3"/>
       <c r="CY35" s="3"/>
       <c r="CZ35" s="3"/>
-      <c r="DA35" s="2"/>
-      <c r="DB35" s="2"/>
+      <c r="DA35" s="5"/>
+      <c r="DB35" s="5"/>
       <c r="DC35" s="2"/>
       <c r="DD35" s="2"/>
       <c r="DE35" s="3"/>
@@ -5954,10 +5991,16 @@
     </row>
     <row r="36" spans="1:118">
       <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
@@ -6059,18 +6102,18 @@
       <c r="CZ36" s="3"/>
       <c r="DA36" s="2"/>
       <c r="DB36" s="2"/>
-      <c r="DC36" s="2"/>
-      <c r="DD36" s="2"/>
+      <c r="DC36" s="6"/>
+      <c r="DD36" s="6"/>
       <c r="DE36" s="3"/>
       <c r="DF36" s="3"/>
-      <c r="DG36" s="2"/>
-      <c r="DH36" s="2"/>
-      <c r="DI36" s="2"/>
-      <c r="DJ36" s="2"/>
-      <c r="DK36" s="2"/>
+      <c r="DG36" s="6"/>
+      <c r="DH36" s="6"/>
+      <c r="DI36" s="6"/>
+      <c r="DJ36" s="6"/>
+      <c r="DK36" s="6"/>
       <c r="DL36" s="3"/>
       <c r="DM36" s="3"/>
-      <c r="DN36" s="2"/>
+      <c r="DN36" s="6"/>
     </row>
     <row r="37" spans="1:118">
       <c r="A37" s="2"/>
@@ -6432,6 +6475,366 @@
       <c r="DM39" s="3"/>
       <c r="DN39" s="2"/>
     </row>
+    <row r="40" spans="1:118">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="3"/>
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+      <c r="AF40" s="3"/>
+      <c r="AG40" s="3"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="3"/>
+      <c r="AN40" s="3"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+      <c r="AT40" s="3"/>
+      <c r="AU40" s="3"/>
+      <c r="AV40" s="2"/>
+      <c r="AW40" s="2"/>
+      <c r="AX40" s="2"/>
+      <c r="AY40" s="2"/>
+      <c r="AZ40" s="2"/>
+      <c r="BA40" s="3"/>
+      <c r="BB40" s="3"/>
+      <c r="BC40" s="2"/>
+      <c r="BD40" s="2"/>
+      <c r="BE40" s="2"/>
+      <c r="BF40" s="2"/>
+      <c r="BG40" s="2"/>
+      <c r="BH40" s="3"/>
+      <c r="BI40" s="3"/>
+      <c r="BJ40" s="2"/>
+      <c r="BK40" s="2"/>
+      <c r="BL40" s="2"/>
+      <c r="BM40" s="2"/>
+      <c r="BN40" s="2"/>
+      <c r="BO40" s="3"/>
+      <c r="BP40" s="3"/>
+      <c r="BQ40" s="2"/>
+      <c r="BR40" s="2"/>
+      <c r="BS40" s="2"/>
+      <c r="BT40" s="2"/>
+      <c r="BU40" s="2"/>
+      <c r="BV40" s="3"/>
+      <c r="BW40" s="3"/>
+      <c r="BX40" s="2"/>
+      <c r="BY40" s="2"/>
+      <c r="BZ40" s="2"/>
+      <c r="CA40" s="2"/>
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="3"/>
+      <c r="CD40" s="3"/>
+      <c r="CE40" s="2"/>
+      <c r="CF40" s="2"/>
+      <c r="CG40" s="2"/>
+      <c r="CH40" s="2"/>
+      <c r="CI40" s="2"/>
+      <c r="CJ40" s="3"/>
+      <c r="CK40" s="3"/>
+      <c r="CL40" s="2"/>
+      <c r="CM40" s="2"/>
+      <c r="CN40" s="2"/>
+      <c r="CO40" s="2"/>
+      <c r="CP40" s="2"/>
+      <c r="CQ40" s="3"/>
+      <c r="CR40" s="3"/>
+      <c r="CS40" s="2"/>
+      <c r="CT40" s="2"/>
+      <c r="CU40" s="2"/>
+      <c r="CV40" s="2"/>
+      <c r="CW40" s="2"/>
+      <c r="CX40" s="3"/>
+      <c r="CY40" s="3"/>
+      <c r="CZ40" s="3"/>
+      <c r="DA40" s="2"/>
+      <c r="DB40" s="2"/>
+      <c r="DC40" s="2"/>
+      <c r="DD40" s="2"/>
+      <c r="DE40" s="3"/>
+      <c r="DF40" s="3"/>
+      <c r="DG40" s="2"/>
+      <c r="DH40" s="2"/>
+      <c r="DI40" s="2"/>
+      <c r="DJ40" s="2"/>
+      <c r="DK40" s="2"/>
+      <c r="DL40" s="3"/>
+      <c r="DM40" s="3"/>
+      <c r="DN40" s="2"/>
+    </row>
+    <row r="41" spans="1:118">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="3"/>
+      <c r="S41" s="3"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="3"/>
+      <c r="Z41" s="3"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="3"/>
+      <c r="AD41" s="3"/>
+      <c r="AE41" s="3"/>
+      <c r="AF41" s="3"/>
+      <c r="AG41" s="3"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="3"/>
+      <c r="AN41" s="3"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+      <c r="AT41" s="3"/>
+      <c r="AU41" s="3"/>
+      <c r="AV41" s="2"/>
+      <c r="AW41" s="2"/>
+      <c r="AX41" s="2"/>
+      <c r="AY41" s="2"/>
+      <c r="AZ41" s="2"/>
+      <c r="BA41" s="3"/>
+      <c r="BB41" s="3"/>
+      <c r="BC41" s="2"/>
+      <c r="BD41" s="2"/>
+      <c r="BE41" s="2"/>
+      <c r="BF41" s="2"/>
+      <c r="BG41" s="2"/>
+      <c r="BH41" s="3"/>
+      <c r="BI41" s="3"/>
+      <c r="BJ41" s="2"/>
+      <c r="BK41" s="2"/>
+      <c r="BL41" s="2"/>
+      <c r="BM41" s="2"/>
+      <c r="BN41" s="2"/>
+      <c r="BO41" s="3"/>
+      <c r="BP41" s="3"/>
+      <c r="BQ41" s="2"/>
+      <c r="BR41" s="2"/>
+      <c r="BS41" s="2"/>
+      <c r="BT41" s="2"/>
+      <c r="BU41" s="2"/>
+      <c r="BV41" s="3"/>
+      <c r="BW41" s="3"/>
+      <c r="BX41" s="2"/>
+      <c r="BY41" s="2"/>
+      <c r="BZ41" s="2"/>
+      <c r="CA41" s="2"/>
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="3"/>
+      <c r="CD41" s="3"/>
+      <c r="CE41" s="2"/>
+      <c r="CF41" s="2"/>
+      <c r="CG41" s="2"/>
+      <c r="CH41" s="2"/>
+      <c r="CI41" s="2"/>
+      <c r="CJ41" s="3"/>
+      <c r="CK41" s="3"/>
+      <c r="CL41" s="2"/>
+      <c r="CM41" s="2"/>
+      <c r="CN41" s="2"/>
+      <c r="CO41" s="2"/>
+      <c r="CP41" s="2"/>
+      <c r="CQ41" s="3"/>
+      <c r="CR41" s="3"/>
+      <c r="CS41" s="2"/>
+      <c r="CT41" s="2"/>
+      <c r="CU41" s="2"/>
+      <c r="CV41" s="2"/>
+      <c r="CW41" s="2"/>
+      <c r="CX41" s="3"/>
+      <c r="CY41" s="3"/>
+      <c r="CZ41" s="3"/>
+      <c r="DA41" s="2"/>
+      <c r="DB41" s="2"/>
+      <c r="DC41" s="2"/>
+      <c r="DD41" s="2"/>
+      <c r="DE41" s="3"/>
+      <c r="DF41" s="3"/>
+      <c r="DG41" s="2"/>
+      <c r="DH41" s="2"/>
+      <c r="DI41" s="2"/>
+      <c r="DJ41" s="2"/>
+      <c r="DK41" s="2"/>
+      <c r="DL41" s="3"/>
+      <c r="DM41" s="3"/>
+      <c r="DN41" s="2"/>
+    </row>
+    <row r="42" spans="1:118">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="3"/>
+      <c r="S42" s="3"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="3"/>
+      <c r="Z42" s="3"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="3"/>
+      <c r="AD42" s="3"/>
+      <c r="AE42" s="3"/>
+      <c r="AF42" s="3"/>
+      <c r="AG42" s="3"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="3"/>
+      <c r="AN42" s="3"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+      <c r="AT42" s="3"/>
+      <c r="AU42" s="3"/>
+      <c r="AV42" s="2"/>
+      <c r="AW42" s="2"/>
+      <c r="AX42" s="2"/>
+      <c r="AY42" s="2"/>
+      <c r="AZ42" s="2"/>
+      <c r="BA42" s="3"/>
+      <c r="BB42" s="3"/>
+      <c r="BC42" s="2"/>
+      <c r="BD42" s="2"/>
+      <c r="BE42" s="2"/>
+      <c r="BF42" s="2"/>
+      <c r="BG42" s="2"/>
+      <c r="BH42" s="3"/>
+      <c r="BI42" s="3"/>
+      <c r="BJ42" s="2"/>
+      <c r="BK42" s="2"/>
+      <c r="BL42" s="2"/>
+      <c r="BM42" s="2"/>
+      <c r="BN42" s="2"/>
+      <c r="BO42" s="3"/>
+      <c r="BP42" s="3"/>
+      <c r="BQ42" s="2"/>
+      <c r="BR42" s="2"/>
+      <c r="BS42" s="2"/>
+      <c r="BT42" s="2"/>
+      <c r="BU42" s="2"/>
+      <c r="BV42" s="3"/>
+      <c r="BW42" s="3"/>
+      <c r="BX42" s="2"/>
+      <c r="BY42" s="2"/>
+      <c r="BZ42" s="2"/>
+      <c r="CA42" s="2"/>
+      <c r="CB42" s="2"/>
+      <c r="CC42" s="3"/>
+      <c r="CD42" s="3"/>
+      <c r="CE42" s="2"/>
+      <c r="CF42" s="2"/>
+      <c r="CG42" s="2"/>
+      <c r="CH42" s="2"/>
+      <c r="CI42" s="2"/>
+      <c r="CJ42" s="3"/>
+      <c r="CK42" s="3"/>
+      <c r="CL42" s="2"/>
+      <c r="CM42" s="2"/>
+      <c r="CN42" s="2"/>
+      <c r="CO42" s="2"/>
+      <c r="CP42" s="2"/>
+      <c r="CQ42" s="3"/>
+      <c r="CR42" s="3"/>
+      <c r="CS42" s="2"/>
+      <c r="CT42" s="2"/>
+      <c r="CU42" s="2"/>
+      <c r="CV42" s="2"/>
+      <c r="CW42" s="2"/>
+      <c r="CX42" s="3"/>
+      <c r="CY42" s="3"/>
+      <c r="CZ42" s="3"/>
+      <c r="DA42" s="2"/>
+      <c r="DB42" s="2"/>
+      <c r="DC42" s="2"/>
+      <c r="DD42" s="2"/>
+      <c r="DE42" s="3"/>
+      <c r="DF42" s="3"/>
+      <c r="DG42" s="2"/>
+      <c r="DH42" s="2"/>
+      <c r="DI42" s="2"/>
+      <c r="DJ42" s="2"/>
+      <c r="DK42" s="2"/>
+      <c r="DL42" s="3"/>
+      <c r="DM42" s="3"/>
+      <c r="DN42" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="F1:Z1"/>
@@ -6449,7 +6852,7 @@
           <x14:formula1>
             <xm:f>Sheet1!$C$4:$C$9</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C39</xm:sqref>
+          <xm:sqref>C4:C42</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E754F3F-04CD-40B5-BA42-91CD6A67A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E62367-B355-4990-93CF-F8F2533D2919}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -993,10 +993,10 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3343,7 +3343,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -3469,7 +3469,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>55</v>
@@ -3721,7 +3721,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -3847,7 +3847,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -3973,7 +3973,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>55</v>
@@ -4098,8 +4098,12 @@
       <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>55</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -4221,7 +4225,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>55</v>
@@ -4347,7 +4351,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>55</v>
@@ -6910,21 +6914,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -7068,24 +7057,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7101,4 +7088,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E754F3F-04CD-40B5-BA42-91CD6A67A4B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BC893-B215-46D4-853A-EA1E0370FF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本スケジュール" sheetId="2" r:id="rId1"/>
@@ -16,23 +16,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -993,10 +982,10 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F14" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2204,10 +2193,14 @@
         <v>20</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
+        <v>47</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>

--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81BC893-B215-46D4-853A-EA1E0370FF1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCDE7FE-1897-49D3-A34A-3F8186991938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -982,10 +982,10 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2575,7 +2575,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>52</v>
@@ -2830,7 +2830,7 @@
         <v>27</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>54</v>
@@ -6903,21 +6903,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -7061,24 +7046,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7094,4 +7077,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FCDE7FE-1897-49D3-A34A-3F8186991938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D0477-44D7-4777-B5CE-A5EA63AF195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="71">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -982,10 +982,10 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -2835,7 +2835,9 @@
       <c r="D11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -7047,18 +7049,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7080,18 +7082,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20357"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D0477-44D7-4777-B5CE-A5EA63AF195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC67643-9562-4B5D-AC97-49785A8CE937}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本スケジュール" sheetId="2" r:id="rId1"/>
@@ -982,25 +982,25 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="AY19" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.58203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="26" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="35" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="35" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="36" max="57" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="58" max="66" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="58" max="66" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="67" max="87" width="3.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="88" max="96" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="88" max="96" width="3.375" style="1" bestFit="1" customWidth="1"/>
     <col min="97" max="118" width="3.5" style="1" bestFit="1" customWidth="1"/>
     <col min="119" max="16384" width="9" style="1"/>
   </cols>
@@ -2449,7 +2449,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -2702,7 +2702,7 @@
         <v>26</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>51</v>
@@ -2958,7 +2958,7 @@
         <v>28</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>54</v>
@@ -3086,7 +3086,7 @@
         <v>29</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>55</v>
@@ -4720,7 +4720,7 @@
         <v>33</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>51</v>
@@ -6863,7 +6863,7 @@
       <selection activeCell="C4" sqref="C4:C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
@@ -6905,6 +6905,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -7048,22 +7063,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7079,21 +7096,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01_企画書/基本スケジュール.xlsx
+++ b/01_企画書/基本スケジュール.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234D0477-44D7-4777-B5CE-A5EA63AF195E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFCA6E3-4025-4B4F-A721-91EAA04AE58E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="基本スケジュール" sheetId="2" r:id="rId1"/>
@@ -16,12 +16,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
   <si>
     <t>基本スケジュール</t>
     <rPh sb="0" eb="2">
@@ -982,10 +993,10 @@
   <dimension ref="A1:DN42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="AM4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="E11" sqref="E11"/>
+      <selection pane="bottomRight" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18"/>
@@ -3338,7 +3349,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>55</v>
@@ -3464,7 +3475,7 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>55</v>
@@ -3716,7 +3727,7 @@
         <v>61</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>55</v>
@@ -3842,7 +3853,7 @@
         <v>70</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>55</v>
@@ -3968,7 +3979,7 @@
         <v>62</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>55</v>
@@ -4093,7 +4104,9 @@
       <c r="B21" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -4216,7 +4229,7 @@
         <v>56</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
         <v>55</v>
@@ -4342,7 +4355,7 @@
         <v>60</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>55</v>
@@ -6905,6 +6918,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101006CA8BB7AF5A5B141B60E23C89B396D11" ma:contentTypeVersion="4" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="146cd7a74c045183d6f8e97a07c8a892">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c8a424a7-50d7-4cd5-819d-65031445e48f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f7973222cdd2b6bbff754334c801256b" ns2:_="">
     <xsd:import namespace="c8a424a7-50d7-4cd5-819d-65031445e48f"/>
@@ -7048,22 +7076,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4005B38-5915-460E-B846-94AC72780F60}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7079,21 +7109,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DC3963D-3C2A-4C8D-8416-9379332D668C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3541736B-EF5E-4AB0-A712-12D2E77CBBE7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>